--- a/1107.xlsx
+++ b/1107.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1733AB7D-4A46-4890-9401-F7C542D4F3E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python workshop\Virial-curvefit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BFF456-5192-45EC-91FA-81D6D532D4AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1107" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -23,39 +23,158 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>T/K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pexp/kPa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Xmolar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ρ/molar dm-3)</t>
   </si>
   <si>
     <t>Z</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,27 +182,208 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,29 +393,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -123,85 +404,277 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +690,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +706,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -245,7 +718,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -262,7 +735,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -292,12 +765,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -327,6 +817,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,25 +985,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.4140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -510,1537 +1010,1452 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>283.37</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>190.7</v>
       </c>
       <c r="C2">
         <v>0.33</v>
       </c>
       <c r="D2">
-        <v>8.8143839358697434E-2</v>
+        <v>8.8143839000000002E-2</v>
       </c>
       <c r="E2">
-        <f>B2/D2/A2/8.3144</f>
-        <v>0.91827750395454921</v>
+        <v>0.91827750399999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>288.36</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>194.9</v>
       </c>
       <c r="C3">
         <v>0.33</v>
       </c>
       <c r="D3">
-        <v>8.8132638313040523E-2</v>
+        <v>8.8132637999999999E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">B3/D3/A3/8.3144</f>
-        <v>0.92237842663119907</v>
+        <v>0.92237842699999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>293.35000000000002</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>199.1</v>
       </c>
       <c r="C4">
         <v>0.33</v>
       </c>
       <c r="D4">
-        <v>8.8121440113810165E-2</v>
+        <v>8.8121439999999995E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.92634479849415641</v>
+        <v>0.92634479800000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>298.35000000000002</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>203.2</v>
       </c>
       <c r="C5">
         <v>0.33</v>
       </c>
       <c r="D5">
-        <v>8.811022232719859E-2</v>
+        <v>8.8110222000000002E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.92969490319389148</v>
+        <v>0.92969490300000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>303.33999999999997</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>207.3</v>
       </c>
       <c r="C6">
         <v>0.33</v>
       </c>
       <c r="D6">
-        <v>8.809902982326609E-2</v>
+        <v>8.8099029999999995E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.93296978620189008</v>
+        <v>0.93296978600000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>308.33</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>211.2</v>
       </c>
       <c r="C7">
         <v>0.33</v>
       </c>
       <c r="D7">
-        <v>8.8087840162505024E-2</v>
+        <v>8.8087840000000001E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.93525761952400044</v>
+        <v>0.93525762000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>313.33</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>215.6</v>
       </c>
       <c r="C8">
         <v>0.33</v>
       </c>
       <c r="D8">
-        <v>8.8076630928210636E-2</v>
+        <v>8.8076631000000002E-2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.93962631211103165</v>
+        <v>0.93962631200000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>318.31</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>219.8</v>
       </c>
       <c r="C9">
         <v>0.33</v>
       </c>
       <c r="D9">
-        <v>8.8065469366164856E-2</v>
+        <v>8.8065468999999993E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.94306328437492282</v>
+        <v>0.94306328399999995</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>323.31</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>224</v>
       </c>
       <c r="C10">
         <v>0.33</v>
       </c>
       <c r="D10">
-        <v>8.8054265824181896E-2</v>
+        <v>8.8054266000000006E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.94634080365115303</v>
+        <v>0.94634080399999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>328.3</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>228.2</v>
       </c>
       <c r="C11">
         <v>0.33</v>
       </c>
       <c r="D11">
-        <v>8.8043087530967859E-2</v>
+        <v>8.8043088000000005E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.94955161969686597</v>
+        <v>0.94955162000000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>333.28</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>232.1</v>
       </c>
       <c r="C12">
         <v>0.33</v>
       </c>
       <c r="D12">
-        <v>8.8031934468377759E-2</v>
+        <v>8.8031934000000006E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.95146918652223356</v>
+        <v>0.95146918700000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>338.28</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>235.9</v>
       </c>
       <c r="C13">
         <v>0.33</v>
       </c>
       <c r="D13">
-        <v>8.8020739456735317E-2</v>
+        <v>8.8020739000000001E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.95287447163818706</v>
+        <v>0.95287447199999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>343.27</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>239.8</v>
       </c>
       <c r="C14">
         <v>0.33</v>
       </c>
       <c r="D14">
-        <v>8.8009569673556456E-2</v>
+        <v>8.8009569999999995E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.95466833301664866</v>
+        <v>0.95466833299999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>348.28</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>243.6</v>
       </c>
       <c r="C15">
         <v>0.33</v>
       </c>
       <c r="D15">
-        <v>8.7998357973288976E-2</v>
+        <v>8.7998357999999999E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.95596780302283779</v>
+        <v>0.95596780299999995</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16">
         <v>353.28</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>247.4</v>
       </c>
       <c r="C16">
         <v>0.33</v>
       </c>
       <c r="D16">
-        <v>8.7987171499313885E-2</v>
+        <v>8.7987171000000003E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.95726101532090424</v>
+        <v>0.95726101500000005</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>283.37</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>320.89999999999998</v>
       </c>
       <c r="C17">
         <v>0.43640000000000001</v>
       </c>
       <c r="D17">
-        <v>0.16199571512489416</v>
+        <v>0.16199571500000001</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.84077812769735494</v>
+        <v>0.84077812799999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>288.36</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>328.8</v>
       </c>
       <c r="C18">
         <v>0.43640000000000001</v>
       </c>
       <c r="D18">
-        <v>0.16197512921197568</v>
+        <v>0.161975129</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.84667657180155043</v>
+        <v>0.84667657200000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>293.35000000000002</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>336.4</v>
       </c>
       <c r="C19">
         <v>0.43640000000000001</v>
       </c>
       <c r="D19">
-        <v>0.16195454853038035</v>
+        <v>0.161954549</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0.85161995759934572</v>
+        <v>0.85161995800000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>298.35000000000002</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>343.5</v>
       </c>
       <c r="C20">
         <v>0.43640000000000001</v>
       </c>
       <c r="D20">
-        <v>0.16193393184999197</v>
+        <v>0.161933932</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0.8551295692220805</v>
+        <v>0.85512956900000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>303.33999999999997</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>350.3</v>
       </c>
       <c r="C21">
         <v>0.43640000000000001</v>
       </c>
       <c r="D21">
-        <v>0.16191336163553599</v>
+        <v>0.16191336200000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0.85782134980557423</v>
+        <v>0.85782135000000004</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22">
         <v>308.33</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>356.2</v>
       </c>
       <c r="C22">
         <v>0.43640000000000001</v>
       </c>
       <c r="D22">
-        <v>0.16189279664642067</v>
+        <v>0.161892797</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0.8582616208963223</v>
+        <v>0.85826162100000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23">
         <v>313.33</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>363.8</v>
       </c>
       <c r="C23">
         <v>0.43640000000000001</v>
       </c>
       <c r="D23">
-        <v>0.1618721956839628</v>
+        <v>0.161872196</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0.86269552267500416</v>
+        <v>0.86269552299999996</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24">
         <v>318.31</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>371</v>
       </c>
       <c r="C24">
         <v>0.43640000000000001</v>
       </c>
       <c r="D24">
-        <v>0.16185168233624989</v>
+        <v>0.161851682</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0.86611486977540231</v>
+        <v>0.86611486999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25">
         <v>323.31</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>377.9</v>
       </c>
       <c r="C25">
         <v>0.43640000000000001</v>
       </c>
       <c r="D25">
-        <v>0.1618310918354427</v>
+        <v>0.16183109200000001</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0.86869010745183595</v>
+        <v>0.86869010700000004</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26">
         <v>328.3</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26">
         <v>384.8</v>
       </c>
       <c r="C26">
         <v>0.43640000000000001</v>
       </c>
       <c r="D26">
-        <v>0.16181054773824591</v>
+        <v>0.161810548</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0.87121719492302263</v>
+        <v>0.87121719500000006</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27">
         <v>333.28</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>391.4</v>
       </c>
       <c r="C27">
         <v>0.43640000000000001</v>
       </c>
       <c r="D27">
-        <v>0.16179005001131164</v>
+        <v>0.16179004999999999</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0.8730293517592983</v>
+        <v>0.87302935199999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28">
         <v>338.28</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>398.1</v>
       </c>
       <c r="C28">
         <v>0.43640000000000001</v>
       </c>
       <c r="D28">
-        <v>0.16176947518804496</v>
+        <v>0.161769475</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0.87496033387347005</v>
+        <v>0.87496033399999995</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29">
         <v>343.27</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>404.6</v>
       </c>
       <c r="C29">
         <v>0.43640000000000001</v>
       </c>
       <c r="D29">
-        <v>0.16174894673107038</v>
+        <v>0.161748947</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0.87643084326156462</v>
+        <v>0.87643084299999996</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>348.28</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>411.3</v>
       </c>
       <c r="C30">
         <v>0.43640000000000001</v>
       </c>
       <c r="D30">
-        <v>0.1617283412365082</v>
+        <v>0.161728341</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0.87823982561867242</v>
+        <v>0.87823982599999995</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>353.28</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31">
         <v>417.9</v>
       </c>
       <c r="C31">
         <v>0.43640000000000001</v>
       </c>
       <c r="D31">
-        <v>0.16170778210424772</v>
+        <v>0.16170778199999999</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0.87981524823936419</v>
+        <v>0.87981524799999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>288.36</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>586.5</v>
       </c>
       <c r="C32">
         <v>0.7208</v>
       </c>
       <c r="D32">
-        <v>0.31048206411674384</v>
+        <v>0.310482064</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0.78788996362980279</v>
+        <v>0.787889964</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>293.35000000000002</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>606.79999999999995</v>
       </c>
       <c r="C33">
         <v>0.7208</v>
       </c>
       <c r="D33">
-        <v>0.31044261403243933</v>
+        <v>0.31044261400000001</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0.8013961165941208</v>
+        <v>0.80139611700000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34">
         <v>298.35000000000002</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>621.9</v>
       </c>
       <c r="C34">
         <v>0.7208</v>
       </c>
       <c r="D34">
-        <v>0.31040309494383994</v>
+        <v>0.31040309500000002</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0.80767670568808181</v>
+        <v>0.80767670599999997</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35">
         <v>303.33999999999997</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <v>635.29999999999995</v>
       </c>
       <c r="C35">
         <v>0.7208</v>
       </c>
       <c r="D35">
-        <v>0.31036366492347395</v>
+        <v>0.31036366500000001</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0.81160999555931168</v>
+        <v>0.81160999599999994</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36">
         <v>308.33</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <v>649.20000000000005</v>
       </c>
       <c r="C36">
         <v>0.7208</v>
       </c>
       <c r="D36">
-        <v>0.31032424491930333</v>
+        <v>0.310324245</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0.81604875514529052</v>
+        <v>0.81604875499999996</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37">
         <v>313.33</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37">
         <v>662.6</v>
       </c>
       <c r="C37">
         <v>0.7208</v>
       </c>
       <c r="D37">
-        <v>0.31028475595962279</v>
+        <v>0.31028475599999999</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0.81970597167699932</v>
+        <v>0.81970597199999995</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38">
         <v>318.31</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38">
         <v>676.3</v>
       </c>
       <c r="C38">
         <v>0.7208</v>
       </c>
       <c r="D38">
-        <v>0.31024543494428636</v>
+        <v>0.31024543500000001</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0.82366913221705551</v>
+        <v>0.82366913200000003</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39">
         <v>323.31</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39">
         <v>689.6</v>
       </c>
       <c r="C39">
         <v>0.7208</v>
       </c>
       <c r="D39">
-        <v>0.31020596603802336</v>
+        <v>0.310205966</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>0.82698390035889879</v>
+        <v>0.82698389999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40">
         <v>328.3</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>702.1</v>
       </c>
       <c r="C40">
         <v>0.7208</v>
       </c>
       <c r="D40">
-        <v>0.31016658608053171</v>
+        <v>0.31016658600000002</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>0.82928186102904655</v>
+        <v>0.82928186100000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41">
         <v>333.28</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>715.3</v>
       </c>
       <c r="C41">
         <v>0.7208</v>
       </c>
       <c r="D41">
-        <v>0.31012729500788855</v>
+        <v>0.31012729500000003</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>0.83235399244460084</v>
+        <v>0.83235399200000004</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42">
         <v>338.28</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42">
         <v>728.2</v>
       </c>
       <c r="C42">
         <v>0.7208</v>
       </c>
       <c r="D42">
-        <v>0.31008785615312268</v>
+        <v>0.310087856</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0.83494656035414794</v>
+        <v>0.83494656</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43">
         <v>343.27</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>740.9</v>
       </c>
       <c r="C43">
         <v>0.7208</v>
       </c>
       <c r="D43">
-        <v>0.3100485061755946</v>
+        <v>0.310048506</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0.83726548267674927</v>
+        <v>0.83726548300000003</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>348.28</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>753.8</v>
       </c>
       <c r="C44">
         <v>0.7208</v>
       </c>
       <c r="D44">
-        <v>0.31000900852854874</v>
+        <v>0.310009009</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0.83969655012384126</v>
+        <v>0.83969654999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45">
         <v>353.28</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45">
         <v>766.6</v>
       </c>
       <c r="C45">
         <v>0.7208</v>
       </c>
       <c r="D45">
-        <v>0.30996959975109178</v>
+        <v>0.30996960000000001</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0.84197606596496255</v>
+        <v>0.84197606599999997</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>288.36</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>625.79999999999995</v>
       </c>
       <c r="C46">
         <v>0.77959999999999996</v>
       </c>
       <c r="D46">
-        <v>0.33219093870782651</v>
+        <v>0.33219093900000002</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0.78574539748502614</v>
+        <v>0.78574539700000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>293.35000000000002</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>650.29999999999995</v>
       </c>
       <c r="C47">
         <v>0.77959999999999996</v>
       </c>
       <c r="D47">
-        <v>0.33214873027760844</v>
+        <v>0.33214873</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>0.80272012367784473</v>
+        <v>0.80272012400000003</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48">
         <v>298.35000000000002</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>667.4</v>
       </c>
       <c r="C48">
         <v>0.77959999999999996</v>
       </c>
       <c r="D48">
-        <v>0.33210644801832229</v>
+        <v>0.332106448</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>0.81012482030255883</v>
+        <v>0.81012481999999997</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49">
         <v>303.33999999999997</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>682.6</v>
       </c>
       <c r="C49">
         <v>0.77959999999999996</v>
       </c>
       <c r="D49">
-        <v>0.33206426105491132</v>
+        <v>0.33206426100000003</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>0.81504868441929823</v>
+        <v>0.81504868399999997</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50">
         <v>308.33</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50">
         <v>695.9</v>
       </c>
       <c r="C50">
         <v>0.77959999999999996</v>
       </c>
       <c r="D50">
-        <v>0.33202208480802714</v>
+        <v>0.33202208500000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>0.81758547455609887</v>
+        <v>0.81758547500000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51">
         <v>313.33</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>711.2</v>
       </c>
       <c r="C51">
         <v>0.77959999999999996</v>
       </c>
       <c r="D51">
-        <v>0.33197983478427068</v>
+        <v>0.331979835</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0.82233192410103273</v>
+        <v>0.82233192399999999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52">
         <v>318.31</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52">
         <v>725.9</v>
       </c>
       <c r="C52">
         <v>0.77959999999999996</v>
       </c>
       <c r="D52">
-        <v>0.33193776444751005</v>
+        <v>0.33193776400000002</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>0.82630224894219473</v>
+        <v>0.82630224900000004</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+      <c r="A53">
         <v>323.31</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>740.4</v>
       </c>
       <c r="C53">
         <v>0.77959999999999996</v>
       </c>
       <c r="D53">
-        <v>0.33189553587930409</v>
+        <v>0.33189553599999999</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>0.82987932915201579</v>
+        <v>0.82987932900000005</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="A54">
         <v>328.3</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54">
         <v>755</v>
       </c>
       <c r="C54">
         <v>0.77959999999999996</v>
       </c>
       <c r="D54">
-        <v>0.33185340247915857</v>
+        <v>0.33185340200000002</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0.83348709470255233</v>
+        <v>0.83348709499999996</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="A55">
         <v>333.28</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>769.2</v>
       </c>
       <c r="C55">
         <v>0.77959999999999996</v>
       </c>
       <c r="D55">
-        <v>0.33181136417868118</v>
+        <v>0.331811364</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0.83658072212187329</v>
+        <v>0.836580722</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+      <c r="A56">
         <v>338.28</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>783.5</v>
       </c>
       <c r="C56">
         <v>0.77959999999999996</v>
       </c>
       <c r="D56">
-        <v>0.33176916776317006</v>
+        <v>0.331769168</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0.83964506785685245</v>
+        <v>0.83964506800000005</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+      <c r="A57">
         <v>343.27</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>797.5</v>
       </c>
       <c r="C57">
         <v>0.77959999999999996</v>
       </c>
       <c r="D57">
-        <v>0.33172706643918415</v>
+        <v>0.33172706600000001</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>0.84233145603852033</v>
+        <v>0.84233145600000003</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>348.28</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58">
         <v>811.3</v>
       </c>
       <c r="C58">
         <v>0.77959999999999996</v>
       </c>
       <c r="D58">
-        <v>0.33168480712064274</v>
+        <v>0.33168480700000003</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>0.84468823809768101</v>
+        <v>0.84468823800000004</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+      <c r="A59">
         <v>353.28</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59">
         <v>824.8</v>
       </c>
       <c r="C59">
         <v>0.77959999999999996</v>
       </c>
       <c r="D59">
-        <v>0.33164264288544282</v>
+        <v>0.33164264300000001</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>0.84669758074636026</v>
+        <v>0.84669758100000003</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>283.37</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60">
         <v>443.4</v>
       </c>
       <c r="C60">
         <v>0.77959999999999996</v>
       </c>
       <c r="D60">
-        <v>0.21351957292186541</v>
+        <v>0.21351957299999999</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>0.88140033697944797</v>
+        <v>0.88140033699999998</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>288.36</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61">
         <v>454.3</v>
       </c>
       <c r="C61">
         <v>0.77959999999999996</v>
       </c>
       <c r="D61">
-        <v>0.21349243951694064</v>
+        <v>0.21349244000000001</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0.88755301959876731</v>
+        <v>0.88755302000000003</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>293.35000000000002</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62">
         <v>464.5</v>
       </c>
       <c r="C62">
         <v>0.77959999999999996</v>
       </c>
       <c r="D62">
-        <v>0.21346531300719751</v>
+        <v>0.21346531299999999</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0.89215722515767071</v>
+        <v>0.89215722500000005</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="A63">
         <v>298.35000000000002</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63">
         <v>474.6</v>
       </c>
       <c r="C63">
         <v>0.77959999999999996</v>
       </c>
       <c r="D63">
-        <v>0.21343813904899619</v>
+        <v>0.213438139</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>0.89639360953174241</v>
+        <v>0.89639360999999995</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64">
         <v>303.33999999999997</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64">
         <v>484.1</v>
       </c>
       <c r="C64">
         <v>0.77959999999999996</v>
       </c>
       <c r="D64">
-        <v>0.21341102633553852</v>
+        <v>0.213411026</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>0.89940983348549797</v>
+        <v>0.89940983299999999</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+      <c r="A65">
         <v>308.33</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65">
         <v>492.7</v>
       </c>
       <c r="C65">
         <v>0.77959999999999996</v>
       </c>
       <c r="D65">
-        <v>0.21338392050937724</v>
+        <v>0.213383921</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
-        <v>0.90068758167921947</v>
+        <v>0.90068758199999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+      <c r="A66">
         <v>313.33</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66">
         <v>503.1</v>
       </c>
       <c r="C66">
         <v>0.77959999999999996</v>
       </c>
       <c r="D66">
-        <v>0.21335676726830299</v>
+        <v>0.213356767</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
-        <v>0.90513842490986751</v>
+        <v>0.90513842499999997</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+      <c r="A67">
         <v>318.31</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67">
         <v>512.6</v>
       </c>
       <c r="C67">
         <v>0.77959999999999996</v>
       </c>
       <c r="D67">
-        <v>0.21332972950844939</v>
+        <v>0.21332973</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E86" si="1">B67/D67/A67/8.3144</f>
-        <v>0.90791673721255073</v>
+        <v>0.90791673699999997</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+      <c r="A68">
         <v>323.31</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68">
         <v>522.5</v>
       </c>
       <c r="C68">
         <v>0.77959999999999996</v>
       </c>
       <c r="D68">
-        <v>0.21330259005642621</v>
+        <v>0.21330258999999999</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
-        <v>0.91125539800680155</v>
+        <v>0.91125539799999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+      <c r="A69">
         <v>328.3</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>532.5</v>
       </c>
       <c r="C69">
         <v>0.77959999999999996</v>
       </c>
       <c r="D69">
-        <v>0.21327551176700266</v>
+        <v>0.213275512</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
-        <v>0.91469608941896219</v>
+        <v>0.91469608899999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+      <c r="A70">
         <v>333.28</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70">
         <v>541.4</v>
       </c>
       <c r="C70">
         <v>0.77959999999999996</v>
       </c>
       <c r="D70">
-        <v>0.21324849459622439</v>
+        <v>0.21324849500000001</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
-        <v>0.91620384610387551</v>
+        <v>0.91620384600000004</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+      <c r="A71">
         <v>338.28</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71">
         <v>551</v>
       </c>
       <c r="C71">
         <v>0.77959999999999996</v>
       </c>
       <c r="D71">
-        <v>0.21322137580809192</v>
+        <v>0.21322137599999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
-        <v>0.91878441826384272</v>
+        <v>0.91878441799999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+      <c r="A72">
         <v>343.27</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72">
         <v>560.4</v>
       </c>
       <c r="C72">
         <v>0.77959999999999996</v>
       </c>
       <c r="D72">
-        <v>0.21319431813337145</v>
+        <v>0.21319431799999999</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
-        <v>0.92099174219380864</v>
+        <v>0.920991742</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>348.28</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73">
         <v>569.5</v>
       </c>
       <c r="C73">
         <v>0.77959999999999996</v>
       </c>
       <c r="D73">
-        <v>0.21316715891872573</v>
+        <v>0.21316715899999999</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
-        <v>0.9226011282404456</v>
+        <v>0.92260112800000005</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+      <c r="A74">
         <v>353.28</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74">
         <v>578.4</v>
       </c>
       <c r="C74">
         <v>0.77959999999999996</v>
       </c>
       <c r="D74">
-        <v>0.21314006081223252</v>
+        <v>0.21314006099999999</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
-        <v>0.92387503755953915</v>
+        <v>0.92387503800000004</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+      <c r="A75">
         <v>298.33999999999997</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>835.2</v>
       </c>
       <c r="C75">
         <v>0.81720000000000004</v>
       </c>
       <c r="D75">
-        <v>0.43238635837198303</v>
+        <v>0.43238635800000003</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
-        <v>0.7787106284362334</v>
+        <v>0.77871062800000002</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+      <c r="A76">
         <v>303.33</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>872.1</v>
       </c>
       <c r="C76">
         <v>0.81720000000000004</v>
       </c>
       <c r="D76">
-        <v>0.43233143299419385</v>
+        <v>0.43233143299999999</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
-        <v>0.79984013866936021</v>
+        <v>0.79984013899999995</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+      <c r="A77">
         <v>308.32</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>896.3</v>
       </c>
       <c r="C77">
         <v>0.81720000000000004</v>
       </c>
       <c r="D77">
-        <v>0.43227652156880586</v>
+        <v>0.432276522</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
-        <v>0.80883351167973538</v>
+        <v>0.80883351199999998</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
+      <c r="A78">
         <v>313.33</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78">
         <v>918.9</v>
       </c>
       <c r="C78">
         <v>0.81720000000000004</v>
       </c>
       <c r="D78">
-        <v>0.43222140408858517</v>
+        <v>0.43222140399999998</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
-        <v>0.81607314915384455</v>
+        <v>0.81607314900000005</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+      <c r="A79">
         <v>318.31</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>938.2</v>
       </c>
       <c r="C79">
         <v>0.81720000000000004</v>
       </c>
       <c r="D79">
-        <v>0.43216663058092014</v>
+        <v>0.43216663100000002</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
-        <v>0.82028165997864921</v>
+        <v>0.82028166000000002</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
+      <c r="A80">
         <v>323.31</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80">
         <v>952.1</v>
       </c>
       <c r="C80">
         <v>0.81720000000000004</v>
       </c>
       <c r="D80">
-        <v>0.43211165106370197</v>
+        <v>0.43211165099999999</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
-        <v>0.8196652754896625</v>
+        <v>0.81966527499999997</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
+      <c r="A81">
         <v>328.3</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81">
         <v>978.6</v>
       </c>
       <c r="C81">
         <v>0.81720000000000004</v>
       </c>
       <c r="D81">
-        <v>0.43205679545061398</v>
+        <v>0.43205679499999999</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
-        <v>0.82977925739005931</v>
+        <v>0.82977925699999999</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
+      <c r="A82">
         <v>333.28</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82">
         <v>997.8</v>
       </c>
       <c r="C82">
         <v>0.81720000000000004</v>
       </c>
       <c r="D82">
-        <v>0.43200206365261301</v>
+        <v>0.43200206400000002</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
-        <v>0.83352285254054304</v>
+        <v>0.83352285299999995</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
+      <c r="A83">
         <v>338.27</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83">
         <v>1018.2</v>
       </c>
       <c r="C83">
         <v>0.81720000000000004</v>
       </c>
       <c r="D83">
-        <v>0.43194723585798789</v>
+        <v>0.43194723600000001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
-        <v>0.83812345732397442</v>
+        <v>0.83812345700000002</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+      <c r="A84">
         <v>343.27</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84">
         <v>1041</v>
       </c>
       <c r="C84">
         <v>0.81720000000000004</v>
       </c>
       <c r="D84">
-        <v>0.43189231214511381</v>
+        <v>0.431892312</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
-        <v>0.84451718557390898</v>
+        <v>0.84451718600000003</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85">
         <v>348.28</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85">
         <v>1057.4000000000001</v>
       </c>
       <c r="C85">
         <v>0.81720000000000004</v>
       </c>
       <c r="D85">
-        <v>0.43183729259247244</v>
+        <v>0.43183729300000001</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
-        <v>0.845589753230233</v>
+        <v>0.84558975300000006</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="14">
+      <c r="A86">
         <v>353.28</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>1078.0999999999999</v>
       </c>
       <c r="C86">
         <v>0.81720000000000004</v>
       </c>
       <c r="D86">
-        <v>0.43178239683366149</v>
+        <v>0.43178239699999998</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
-        <v>0.85004936499500072</v>
+        <v>0.85004936499999995</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1107.xlsx
+++ b/1107.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python workshop\Virial-curvefit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BFF456-5192-45EC-91FA-81D6D532D4AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1733AB7D-4A46-4890-9401-F7C542D4F3E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1107" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -23,158 +23,39 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>T/K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pexp/kPa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Xmolar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ρ/molar dm-3)</t>
   </si>
   <si>
     <t>Z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,208 +63,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -393,10 +93,29 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,277 +123,85 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -706,7 +233,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -718,7 +245,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -735,7 +262,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -765,29 +292,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -817,23 +327,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -985,18 +478,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.4140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1010,1452 +510,1537 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>283.37</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>190.7</v>
       </c>
       <c r="C2">
         <v>0.33</v>
       </c>
       <c r="D2">
-        <v>8.8143839000000002E-2</v>
+        <v>8.8143839358697434E-2</v>
       </c>
       <c r="E2">
-        <v>0.91827750399999997</v>
+        <f>B2/D2/A2/8.3144</f>
+        <v>0.91827750395454921</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>288.36</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>194.9</v>
       </c>
       <c r="C3">
         <v>0.33</v>
       </c>
       <c r="D3">
-        <v>8.8132637999999999E-2</v>
+        <v>8.8132638313040523E-2</v>
       </c>
       <c r="E3">
-        <v>0.92237842699999995</v>
+        <f t="shared" ref="E3:E66" si="0">B3/D3/A3/8.3144</f>
+        <v>0.92237842663119907</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>293.35000000000002</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>199.1</v>
       </c>
       <c r="C4">
         <v>0.33</v>
       </c>
       <c r="D4">
-        <v>8.8121439999999995E-2</v>
+        <v>8.8121440113810165E-2</v>
       </c>
       <c r="E4">
-        <v>0.92634479800000002</v>
+        <f t="shared" si="0"/>
+        <v>0.92634479849415641</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>298.35000000000002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>203.2</v>
       </c>
       <c r="C5">
         <v>0.33</v>
       </c>
       <c r="D5">
-        <v>8.8110222000000002E-2</v>
+        <v>8.811022232719859E-2</v>
       </c>
       <c r="E5">
-        <v>0.92969490300000002</v>
+        <f t="shared" si="0"/>
+        <v>0.92969490319389148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>303.33999999999997</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>207.3</v>
       </c>
       <c r="C6">
         <v>0.33</v>
       </c>
       <c r="D6">
-        <v>8.8099029999999995E-2</v>
+        <v>8.809902982326609E-2</v>
       </c>
       <c r="E6">
-        <v>0.93296978600000002</v>
+        <f t="shared" si="0"/>
+        <v>0.93296978620189008</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>308.33</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>211.2</v>
       </c>
       <c r="C7">
         <v>0.33</v>
       </c>
       <c r="D7">
-        <v>8.8087840000000001E-2</v>
+        <v>8.8087840162505024E-2</v>
       </c>
       <c r="E7">
-        <v>0.93525762000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.93525761952400044</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>313.33</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>215.6</v>
       </c>
       <c r="C8">
         <v>0.33</v>
       </c>
       <c r="D8">
-        <v>8.8076631000000002E-2</v>
+        <v>8.8076630928210636E-2</v>
       </c>
       <c r="E8">
-        <v>0.93962631200000002</v>
+        <f t="shared" si="0"/>
+        <v>0.93962631211103165</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>318.31</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>219.8</v>
       </c>
       <c r="C9">
         <v>0.33</v>
       </c>
       <c r="D9">
-        <v>8.8065468999999993E-2</v>
+        <v>8.8065469366164856E-2</v>
       </c>
       <c r="E9">
-        <v>0.94306328399999995</v>
+        <f t="shared" si="0"/>
+        <v>0.94306328437492282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>323.31</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>224</v>
       </c>
       <c r="C10">
         <v>0.33</v>
       </c>
       <c r="D10">
-        <v>8.8054266000000006E-2</v>
+        <v>8.8054265824181896E-2</v>
       </c>
       <c r="E10">
-        <v>0.94634080399999998</v>
+        <f t="shared" si="0"/>
+        <v>0.94634080365115303</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>328.3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>228.2</v>
       </c>
       <c r="C11">
         <v>0.33</v>
       </c>
       <c r="D11">
-        <v>8.8043088000000005E-2</v>
+        <v>8.8043087530967859E-2</v>
       </c>
       <c r="E11">
-        <v>0.94955162000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.94955161969686597</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>333.28</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>232.1</v>
       </c>
       <c r="C12">
         <v>0.33</v>
       </c>
       <c r="D12">
-        <v>8.8031934000000006E-2</v>
+        <v>8.8031934468377759E-2</v>
       </c>
       <c r="E12">
-        <v>0.95146918700000005</v>
+        <f t="shared" si="0"/>
+        <v>0.95146918652223356</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>338.28</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>235.9</v>
       </c>
       <c r="C13">
         <v>0.33</v>
       </c>
       <c r="D13">
-        <v>8.8020739000000001E-2</v>
+        <v>8.8020739456735317E-2</v>
       </c>
       <c r="E13">
-        <v>0.95287447199999997</v>
+        <f t="shared" si="0"/>
+        <v>0.95287447163818706</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>343.27</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>239.8</v>
       </c>
       <c r="C14">
         <v>0.33</v>
       </c>
       <c r="D14">
-        <v>8.8009569999999995E-2</v>
+        <v>8.8009569673556456E-2</v>
       </c>
       <c r="E14">
-        <v>0.95466833299999998</v>
+        <f t="shared" si="0"/>
+        <v>0.95466833301664866</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>348.28</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>243.6</v>
       </c>
       <c r="C15">
         <v>0.33</v>
       </c>
       <c r="D15">
-        <v>8.7998357999999999E-2</v>
+        <v>8.7998357973288976E-2</v>
       </c>
       <c r="E15">
-        <v>0.95596780299999995</v>
+        <f t="shared" si="0"/>
+        <v>0.95596780302283779</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="8">
         <v>353.28</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="9">
         <v>247.4</v>
       </c>
       <c r="C16">
         <v>0.33</v>
       </c>
       <c r="D16">
-        <v>8.7987171000000003E-2</v>
+        <v>8.7987171499313885E-2</v>
       </c>
       <c r="E16">
-        <v>0.95726101500000005</v>
+        <f t="shared" si="0"/>
+        <v>0.95726101532090424</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>283.37</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>320.89999999999998</v>
       </c>
       <c r="C17">
         <v>0.43640000000000001</v>
       </c>
       <c r="D17">
-        <v>0.16199571500000001</v>
+        <v>0.16199571512489416</v>
       </c>
       <c r="E17">
-        <v>0.84077812799999996</v>
+        <f t="shared" si="0"/>
+        <v>0.84077812769735494</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>288.36</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>328.8</v>
       </c>
       <c r="C18">
         <v>0.43640000000000001</v>
       </c>
       <c r="D18">
-        <v>0.161975129</v>
+        <v>0.16197512921197568</v>
       </c>
       <c r="E18">
-        <v>0.84667657200000002</v>
+        <f t="shared" si="0"/>
+        <v>0.84667657180155043</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>293.35000000000002</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>336.4</v>
       </c>
       <c r="C19">
         <v>0.43640000000000001</v>
       </c>
       <c r="D19">
-        <v>0.161954549</v>
+        <v>0.16195454853038035</v>
       </c>
       <c r="E19">
-        <v>0.85161995800000001</v>
+        <f t="shared" si="0"/>
+        <v>0.85161995759934572</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>298.35000000000002</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>343.5</v>
       </c>
       <c r="C20">
         <v>0.43640000000000001</v>
       </c>
       <c r="D20">
-        <v>0.161933932</v>
+        <v>0.16193393184999197</v>
       </c>
       <c r="E20">
-        <v>0.85512956900000003</v>
+        <f t="shared" si="0"/>
+        <v>0.8551295692220805</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>303.33999999999997</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>350.3</v>
       </c>
       <c r="C21">
         <v>0.43640000000000001</v>
       </c>
       <c r="D21">
-        <v>0.16191336200000001</v>
+        <v>0.16191336163553599</v>
       </c>
       <c r="E21">
-        <v>0.85782135000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.85782134980557423</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="7">
         <v>308.33</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>356.2</v>
       </c>
       <c r="C22">
         <v>0.43640000000000001</v>
       </c>
       <c r="D22">
-        <v>0.161892797</v>
+        <v>0.16189279664642067</v>
       </c>
       <c r="E22">
-        <v>0.85826162100000003</v>
+        <f t="shared" si="0"/>
+        <v>0.8582616208963223</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>313.33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>363.8</v>
       </c>
       <c r="C23">
         <v>0.43640000000000001</v>
       </c>
       <c r="D23">
-        <v>0.161872196</v>
+        <v>0.1618721956839628</v>
       </c>
       <c r="E23">
-        <v>0.86269552299999996</v>
+        <f t="shared" si="0"/>
+        <v>0.86269552267500416</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="7">
         <v>318.31</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>371</v>
       </c>
       <c r="C24">
         <v>0.43640000000000001</v>
       </c>
       <c r="D24">
-        <v>0.161851682</v>
+        <v>0.16185168233624989</v>
       </c>
       <c r="E24">
-        <v>0.86611486999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.86611486977540231</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>323.31</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>377.9</v>
       </c>
       <c r="C25">
         <v>0.43640000000000001</v>
       </c>
       <c r="D25">
-        <v>0.16183109200000001</v>
+        <v>0.1618310918354427</v>
       </c>
       <c r="E25">
-        <v>0.86869010700000004</v>
+        <f t="shared" si="0"/>
+        <v>0.86869010745183595</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="7">
         <v>328.3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>384.8</v>
       </c>
       <c r="C26">
         <v>0.43640000000000001</v>
       </c>
       <c r="D26">
-        <v>0.161810548</v>
+        <v>0.16181054773824591</v>
       </c>
       <c r="E26">
-        <v>0.87121719500000006</v>
+        <f t="shared" si="0"/>
+        <v>0.87121719492302263</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>333.28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>391.4</v>
       </c>
       <c r="C27">
         <v>0.43640000000000001</v>
       </c>
       <c r="D27">
-        <v>0.16179004999999999</v>
+        <v>0.16179005001131164</v>
       </c>
       <c r="E27">
-        <v>0.87302935199999998</v>
+        <f t="shared" si="0"/>
+        <v>0.8730293517592983</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="7">
         <v>338.28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>398.1</v>
       </c>
       <c r="C28">
         <v>0.43640000000000001</v>
       </c>
       <c r="D28">
-        <v>0.161769475</v>
+        <v>0.16176947518804496</v>
       </c>
       <c r="E28">
-        <v>0.87496033399999995</v>
+        <f t="shared" si="0"/>
+        <v>0.87496033387347005</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>343.27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>404.6</v>
       </c>
       <c r="C29">
         <v>0.43640000000000001</v>
       </c>
       <c r="D29">
-        <v>0.161748947</v>
+        <v>0.16174894673107038</v>
       </c>
       <c r="E29">
-        <v>0.87643084299999996</v>
+        <f t="shared" si="0"/>
+        <v>0.87643084326156462</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>348.28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>411.3</v>
       </c>
       <c r="C30">
         <v>0.43640000000000001</v>
       </c>
       <c r="D30">
-        <v>0.161728341</v>
+        <v>0.1617283412365082</v>
       </c>
       <c r="E30">
-        <v>0.87823982599999995</v>
+        <f t="shared" si="0"/>
+        <v>0.87823982561867242</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="8">
         <v>353.28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="11">
         <v>417.9</v>
       </c>
       <c r="C31">
         <v>0.43640000000000001</v>
       </c>
       <c r="D31">
-        <v>0.16170778199999999</v>
+        <v>0.16170778210424772</v>
       </c>
       <c r="E31">
-        <v>0.87981524799999999</v>
+        <f t="shared" si="0"/>
+        <v>0.87981524823936419</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>288.36</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>586.5</v>
       </c>
       <c r="C32">
         <v>0.7208</v>
       </c>
       <c r="D32">
-        <v>0.310482064</v>
+        <v>0.31048206411674384</v>
       </c>
       <c r="E32">
-        <v>0.787889964</v>
+        <f t="shared" si="0"/>
+        <v>0.78788996362980279</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>293.35000000000002</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>606.79999999999995</v>
       </c>
       <c r="C33">
         <v>0.7208</v>
       </c>
       <c r="D33">
-        <v>0.31044261400000001</v>
+        <v>0.31044261403243933</v>
       </c>
       <c r="E33">
-        <v>0.80139611700000002</v>
+        <f t="shared" si="0"/>
+        <v>0.8013961165941208</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="7">
         <v>298.35000000000002</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>621.9</v>
       </c>
       <c r="C34">
         <v>0.7208</v>
       </c>
       <c r="D34">
-        <v>0.31040309500000002</v>
+        <v>0.31040309494383994</v>
       </c>
       <c r="E34">
-        <v>0.80767670599999997</v>
+        <f t="shared" si="0"/>
+        <v>0.80767670568808181</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>303.33999999999997</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>635.29999999999995</v>
       </c>
       <c r="C35">
         <v>0.7208</v>
       </c>
       <c r="D35">
-        <v>0.31036366500000001</v>
+        <v>0.31036366492347395</v>
       </c>
       <c r="E35">
-        <v>0.81160999599999994</v>
+        <f t="shared" si="0"/>
+        <v>0.81160999555931168</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="7">
         <v>308.33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>649.20000000000005</v>
       </c>
       <c r="C36">
         <v>0.7208</v>
       </c>
       <c r="D36">
-        <v>0.310324245</v>
+        <v>0.31032424491930333</v>
       </c>
       <c r="E36">
-        <v>0.81604875499999996</v>
+        <f t="shared" si="0"/>
+        <v>0.81604875514529052</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>313.33</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>662.6</v>
       </c>
       <c r="C37">
         <v>0.7208</v>
       </c>
       <c r="D37">
-        <v>0.31028475599999999</v>
+        <v>0.31028475595962279</v>
       </c>
       <c r="E37">
-        <v>0.81970597199999995</v>
+        <f t="shared" si="0"/>
+        <v>0.81970597167699932</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="7">
         <v>318.31</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>676.3</v>
       </c>
       <c r="C38">
         <v>0.7208</v>
       </c>
       <c r="D38">
-        <v>0.31024543500000001</v>
+        <v>0.31024543494428636</v>
       </c>
       <c r="E38">
-        <v>0.82366913200000003</v>
+        <f t="shared" si="0"/>
+        <v>0.82366913221705551</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>323.31</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>689.6</v>
       </c>
       <c r="C39">
         <v>0.7208</v>
       </c>
       <c r="D39">
-        <v>0.310205966</v>
+        <v>0.31020596603802336</v>
       </c>
       <c r="E39">
-        <v>0.82698389999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.82698390035889879</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="7">
         <v>328.3</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>702.1</v>
       </c>
       <c r="C40">
         <v>0.7208</v>
       </c>
       <c r="D40">
-        <v>0.31016658600000002</v>
+        <v>0.31016658608053171</v>
       </c>
       <c r="E40">
-        <v>0.82928186100000001</v>
+        <f t="shared" si="0"/>
+        <v>0.82928186102904655</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>333.28</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>715.3</v>
       </c>
       <c r="C41">
         <v>0.7208</v>
       </c>
       <c r="D41">
-        <v>0.31012729500000003</v>
+        <v>0.31012729500788855</v>
       </c>
       <c r="E41">
-        <v>0.83235399200000004</v>
+        <f t="shared" si="0"/>
+        <v>0.83235399244460084</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="7">
         <v>338.28</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>728.2</v>
       </c>
       <c r="C42">
         <v>0.7208</v>
       </c>
       <c r="D42">
-        <v>0.310087856</v>
+        <v>0.31008785615312268</v>
       </c>
       <c r="E42">
-        <v>0.83494656</v>
+        <f t="shared" si="0"/>
+        <v>0.83494656035414794</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>343.27</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>740.9</v>
       </c>
       <c r="C43">
         <v>0.7208</v>
       </c>
       <c r="D43">
-        <v>0.310048506</v>
+        <v>0.3100485061755946</v>
       </c>
       <c r="E43">
-        <v>0.83726548300000003</v>
+        <f t="shared" si="0"/>
+        <v>0.83726548267674927</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>348.28</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>753.8</v>
       </c>
       <c r="C44">
         <v>0.7208</v>
       </c>
       <c r="D44">
-        <v>0.310009009</v>
+        <v>0.31000900852854874</v>
       </c>
       <c r="E44">
-        <v>0.83969654999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.83969655012384126</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="8">
         <v>353.28</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="11">
         <v>766.6</v>
       </c>
       <c r="C45">
         <v>0.7208</v>
       </c>
       <c r="D45">
-        <v>0.30996960000000001</v>
+        <v>0.30996959975109178</v>
       </c>
       <c r="E45">
-        <v>0.84197606599999997</v>
+        <f t="shared" si="0"/>
+        <v>0.84197606596496255</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>288.36</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>625.79999999999995</v>
       </c>
       <c r="C46">
         <v>0.77959999999999996</v>
       </c>
       <c r="D46">
-        <v>0.33219093900000002</v>
+        <v>0.33219093870782651</v>
       </c>
       <c r="E46">
-        <v>0.78574539700000001</v>
+        <f t="shared" si="0"/>
+        <v>0.78574539748502614</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>293.35000000000002</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>650.29999999999995</v>
       </c>
       <c r="C47">
         <v>0.77959999999999996</v>
       </c>
       <c r="D47">
-        <v>0.33214873</v>
+        <v>0.33214873027760844</v>
       </c>
       <c r="E47">
-        <v>0.80272012400000003</v>
+        <f t="shared" si="0"/>
+        <v>0.80272012367784473</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="7">
         <v>298.35000000000002</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>667.4</v>
       </c>
       <c r="C48">
         <v>0.77959999999999996</v>
       </c>
       <c r="D48">
-        <v>0.332106448</v>
+        <v>0.33210644801832229</v>
       </c>
       <c r="E48">
-        <v>0.81012481999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.81012482030255883</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>303.33999999999997</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>682.6</v>
       </c>
       <c r="C49">
         <v>0.77959999999999996</v>
       </c>
       <c r="D49">
-        <v>0.33206426100000003</v>
+        <v>0.33206426105491132</v>
       </c>
       <c r="E49">
-        <v>0.81504868399999997</v>
+        <f t="shared" si="0"/>
+        <v>0.81504868441929823</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="7">
         <v>308.33</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>695.9</v>
       </c>
       <c r="C50">
         <v>0.77959999999999996</v>
       </c>
       <c r="D50">
-        <v>0.33202208500000002</v>
+        <v>0.33202208480802714</v>
       </c>
       <c r="E50">
-        <v>0.81758547500000001</v>
+        <f t="shared" si="0"/>
+        <v>0.81758547455609887</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>313.33</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>711.2</v>
       </c>
       <c r="C51">
         <v>0.77959999999999996</v>
       </c>
       <c r="D51">
-        <v>0.331979835</v>
+        <v>0.33197983478427068</v>
       </c>
       <c r="E51">
-        <v>0.82233192399999999</v>
+        <f t="shared" si="0"/>
+        <v>0.82233192410103273</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="7">
         <v>318.31</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>725.9</v>
       </c>
       <c r="C52">
         <v>0.77959999999999996</v>
       </c>
       <c r="D52">
-        <v>0.33193776400000002</v>
+        <v>0.33193776444751005</v>
       </c>
       <c r="E52">
-        <v>0.82630224900000004</v>
+        <f t="shared" si="0"/>
+        <v>0.82630224894219473</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>323.31</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>740.4</v>
       </c>
       <c r="C53">
         <v>0.77959999999999996</v>
       </c>
       <c r="D53">
-        <v>0.33189553599999999</v>
+        <v>0.33189553587930409</v>
       </c>
       <c r="E53">
-        <v>0.82987932900000005</v>
+        <f t="shared" si="0"/>
+        <v>0.82987932915201579</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="7">
         <v>328.3</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>755</v>
       </c>
       <c r="C54">
         <v>0.77959999999999996</v>
       </c>
       <c r="D54">
-        <v>0.33185340200000002</v>
+        <v>0.33185340247915857</v>
       </c>
       <c r="E54">
-        <v>0.83348709499999996</v>
+        <f t="shared" si="0"/>
+        <v>0.83348709470255233</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="7">
         <v>333.28</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>769.2</v>
       </c>
       <c r="C55">
         <v>0.77959999999999996</v>
       </c>
       <c r="D55">
-        <v>0.331811364</v>
+        <v>0.33181136417868118</v>
       </c>
       <c r="E55">
-        <v>0.836580722</v>
+        <f t="shared" si="0"/>
+        <v>0.83658072212187329</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="7">
         <v>338.28</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>783.5</v>
       </c>
       <c r="C56">
         <v>0.77959999999999996</v>
       </c>
       <c r="D56">
-        <v>0.331769168</v>
+        <v>0.33176916776317006</v>
       </c>
       <c r="E56">
-        <v>0.83964506800000005</v>
+        <f t="shared" si="0"/>
+        <v>0.83964506785685245</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="7">
         <v>343.27</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>797.5</v>
       </c>
       <c r="C57">
         <v>0.77959999999999996</v>
       </c>
       <c r="D57">
-        <v>0.33172706600000001</v>
+        <v>0.33172706643918415</v>
       </c>
       <c r="E57">
-        <v>0.84233145600000003</v>
+        <f t="shared" si="0"/>
+        <v>0.84233145603852033</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="3">
         <v>348.28</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>811.3</v>
       </c>
       <c r="C58">
         <v>0.77959999999999996</v>
       </c>
       <c r="D58">
-        <v>0.33168480700000003</v>
+        <v>0.33168480712064274</v>
       </c>
       <c r="E58">
-        <v>0.84468823800000004</v>
+        <f t="shared" si="0"/>
+        <v>0.84468823809768101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="12">
         <v>353.28</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="9">
         <v>824.8</v>
       </c>
       <c r="C59">
         <v>0.77959999999999996</v>
       </c>
       <c r="D59">
-        <v>0.33164264300000001</v>
+        <v>0.33164264288544282</v>
       </c>
       <c r="E59">
-        <v>0.84669758100000003</v>
+        <f t="shared" si="0"/>
+        <v>0.84669758074636026</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>283.37</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="13">
         <v>443.4</v>
       </c>
       <c r="C60">
         <v>0.77959999999999996</v>
       </c>
       <c r="D60">
-        <v>0.21351957299999999</v>
+        <v>0.21351957292186541</v>
       </c>
       <c r="E60">
-        <v>0.88140033699999998</v>
+        <f t="shared" si="0"/>
+        <v>0.88140033697944797</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>288.36</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="13">
         <v>454.3</v>
       </c>
       <c r="C61">
         <v>0.77959999999999996</v>
       </c>
       <c r="D61">
-        <v>0.21349244000000001</v>
+        <v>0.21349243951694064</v>
       </c>
       <c r="E61">
-        <v>0.88755302000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.88755301959876731</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>293.35000000000002</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="13">
         <v>464.5</v>
       </c>
       <c r="C62">
         <v>0.77959999999999996</v>
       </c>
       <c r="D62">
-        <v>0.21346531299999999</v>
+        <v>0.21346531300719751</v>
       </c>
       <c r="E62">
-        <v>0.89215722500000005</v>
+        <f t="shared" si="0"/>
+        <v>0.89215722515767071</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="7">
         <v>298.35000000000002</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="6">
         <v>474.6</v>
       </c>
       <c r="C63">
         <v>0.77959999999999996</v>
       </c>
       <c r="D63">
-        <v>0.213438139</v>
+        <v>0.21343813904899619</v>
       </c>
       <c r="E63">
-        <v>0.89639360999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.89639360953174241</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="7">
         <v>303.33999999999997</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>484.1</v>
       </c>
       <c r="C64">
         <v>0.77959999999999996</v>
       </c>
       <c r="D64">
-        <v>0.213411026</v>
+        <v>0.21341102633553852</v>
       </c>
       <c r="E64">
-        <v>0.89940983299999999</v>
+        <f t="shared" si="0"/>
+        <v>0.89940983348549797</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="7">
         <v>308.33</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>492.7</v>
       </c>
       <c r="C65">
         <v>0.77959999999999996</v>
       </c>
       <c r="D65">
-        <v>0.213383921</v>
+        <v>0.21338392050937724</v>
       </c>
       <c r="E65">
-        <v>0.90068758199999999</v>
+        <f t="shared" si="0"/>
+        <v>0.90068758167921947</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="7">
         <v>313.33</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>503.1</v>
       </c>
       <c r="C66">
         <v>0.77959999999999996</v>
       </c>
       <c r="D66">
-        <v>0.213356767</v>
+        <v>0.21335676726830299</v>
       </c>
       <c r="E66">
-        <v>0.90513842499999997</v>
+        <f t="shared" si="0"/>
+        <v>0.90513842490986751</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="7">
         <v>318.31</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="6">
         <v>512.6</v>
       </c>
       <c r="C67">
         <v>0.77959999999999996</v>
       </c>
       <c r="D67">
-        <v>0.21332973</v>
+        <v>0.21332972950844939</v>
       </c>
       <c r="E67">
-        <v>0.90791673699999997</v>
+        <f t="shared" ref="E67:E86" si="1">B67/D67/A67/8.3144</f>
+        <v>0.90791673721255073</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="7">
         <v>323.31</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>522.5</v>
       </c>
       <c r="C68">
         <v>0.77959999999999996</v>
       </c>
       <c r="D68">
-        <v>0.21330258999999999</v>
+        <v>0.21330259005642621</v>
       </c>
       <c r="E68">
-        <v>0.91125539799999999</v>
+        <f t="shared" si="1"/>
+        <v>0.91125539800680155</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="7">
         <v>328.3</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>532.5</v>
       </c>
       <c r="C69">
         <v>0.77959999999999996</v>
       </c>
       <c r="D69">
-        <v>0.213275512</v>
+        <v>0.21327551176700266</v>
       </c>
       <c r="E69">
-        <v>0.91469608899999999</v>
+        <f t="shared" si="1"/>
+        <v>0.91469608941896219</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="7">
         <v>333.28</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="6">
         <v>541.4</v>
       </c>
       <c r="C70">
         <v>0.77959999999999996</v>
       </c>
       <c r="D70">
-        <v>0.21324849500000001</v>
+        <v>0.21324849459622439</v>
       </c>
       <c r="E70">
-        <v>0.91620384600000004</v>
+        <f t="shared" si="1"/>
+        <v>0.91620384610387551</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="7">
         <v>338.28</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="6">
         <v>551</v>
       </c>
       <c r="C71">
         <v>0.77959999999999996</v>
       </c>
       <c r="D71">
-        <v>0.21322137599999999</v>
+        <v>0.21322137580809192</v>
       </c>
       <c r="E71">
-        <v>0.91878441799999999</v>
+        <f t="shared" si="1"/>
+        <v>0.91878441826384272</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="7">
         <v>343.27</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>560.4</v>
       </c>
       <c r="C72">
         <v>0.77959999999999996</v>
       </c>
       <c r="D72">
-        <v>0.21319431799999999</v>
+        <v>0.21319431813337145</v>
       </c>
       <c r="E72">
-        <v>0.920991742</v>
+        <f t="shared" si="1"/>
+        <v>0.92099174219380864</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="3">
         <v>348.28</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="6">
         <v>569.5</v>
       </c>
       <c r="C73">
         <v>0.77959999999999996</v>
       </c>
       <c r="D73">
-        <v>0.21316715899999999</v>
+        <v>0.21316715891872573</v>
       </c>
       <c r="E73">
-        <v>0.92260112800000005</v>
+        <f t="shared" si="1"/>
+        <v>0.9226011282404456</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="8">
         <v>353.28</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="11">
         <v>578.4</v>
       </c>
       <c r="C74">
         <v>0.77959999999999996</v>
       </c>
       <c r="D74">
-        <v>0.21314006099999999</v>
+        <v>0.21314006081223252</v>
       </c>
       <c r="E74">
-        <v>0.92387503800000004</v>
+        <f t="shared" si="1"/>
+        <v>0.92387503755953915</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="7">
         <v>298.33999999999997</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>835.2</v>
       </c>
       <c r="C75">
         <v>0.81720000000000004</v>
       </c>
       <c r="D75">
-        <v>0.43238635800000003</v>
+        <v>0.43238635837198303</v>
       </c>
       <c r="E75">
-        <v>0.77871062800000002</v>
+        <f t="shared" si="1"/>
+        <v>0.7787106284362334</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="7">
         <v>303.33</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>872.1</v>
       </c>
       <c r="C76">
         <v>0.81720000000000004</v>
       </c>
       <c r="D76">
-        <v>0.43233143299999999</v>
+        <v>0.43233143299419385</v>
       </c>
       <c r="E76">
-        <v>0.79984013899999995</v>
+        <f t="shared" si="1"/>
+        <v>0.79984013866936021</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>308.32</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>896.3</v>
       </c>
       <c r="C77">
         <v>0.81720000000000004</v>
       </c>
       <c r="D77">
-        <v>0.432276522</v>
+        <v>0.43227652156880586</v>
       </c>
       <c r="E77">
-        <v>0.80883351199999998</v>
+        <f t="shared" si="1"/>
+        <v>0.80883351167973538</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="7">
         <v>313.33</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>918.9</v>
       </c>
       <c r="C78">
         <v>0.81720000000000004</v>
       </c>
       <c r="D78">
-        <v>0.43222140399999998</v>
+        <v>0.43222140408858517</v>
       </c>
       <c r="E78">
-        <v>0.81607314900000005</v>
+        <f t="shared" si="1"/>
+        <v>0.81607314915384455</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="7">
         <v>318.31</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>938.2</v>
       </c>
       <c r="C79">
         <v>0.81720000000000004</v>
       </c>
       <c r="D79">
-        <v>0.43216663100000002</v>
+        <v>0.43216663058092014</v>
       </c>
       <c r="E79">
-        <v>0.82028166000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.82028165997864921</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="7">
         <v>323.31</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="6">
         <v>952.1</v>
       </c>
       <c r="C80">
         <v>0.81720000000000004</v>
       </c>
       <c r="D80">
-        <v>0.43211165099999999</v>
+        <v>0.43211165106370197</v>
       </c>
       <c r="E80">
-        <v>0.81966527499999997</v>
+        <f t="shared" si="1"/>
+        <v>0.8196652754896625</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>328.3</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="6">
         <v>978.6</v>
       </c>
       <c r="C81">
         <v>0.81720000000000004</v>
       </c>
       <c r="D81">
-        <v>0.43205679499999999</v>
+        <v>0.43205679545061398</v>
       </c>
       <c r="E81">
-        <v>0.82977925699999999</v>
+        <f t="shared" si="1"/>
+        <v>0.82977925739005931</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="7">
         <v>333.28</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="6">
         <v>997.8</v>
       </c>
       <c r="C82">
         <v>0.81720000000000004</v>
       </c>
       <c r="D82">
-        <v>0.43200206400000002</v>
+        <v>0.43200206365261301</v>
       </c>
       <c r="E82">
-        <v>0.83352285299999995</v>
+        <f t="shared" si="1"/>
+        <v>0.83352285254054304</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>338.27</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="6">
         <v>1018.2</v>
       </c>
       <c r="C83">
         <v>0.81720000000000004</v>
       </c>
       <c r="D83">
-        <v>0.43194723600000001</v>
+        <v>0.43194723585798789</v>
       </c>
       <c r="E83">
-        <v>0.83812345700000002</v>
+        <f t="shared" si="1"/>
+        <v>0.83812345732397442</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="7">
         <v>343.27</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="6">
         <v>1041</v>
       </c>
       <c r="C84">
         <v>0.81720000000000004</v>
       </c>
       <c r="D84">
-        <v>0.431892312</v>
+        <v>0.43189231214511381</v>
       </c>
       <c r="E84">
-        <v>0.84451718600000003</v>
+        <f t="shared" si="1"/>
+        <v>0.84451718557390898</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>348.28</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="6">
         <v>1057.4000000000001</v>
       </c>
       <c r="C85">
         <v>0.81720000000000004</v>
       </c>
       <c r="D85">
-        <v>0.43183729300000001</v>
+        <v>0.43183729259247244</v>
       </c>
       <c r="E85">
-        <v>0.84558975300000006</v>
+        <f t="shared" si="1"/>
+        <v>0.845589753230233</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="14">
         <v>353.28</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>1078.0999999999999</v>
       </c>
       <c r="C86">
         <v>0.81720000000000004</v>
       </c>
       <c r="D86">
-        <v>0.43178239699999998</v>
+        <v>0.43178239683366149</v>
       </c>
       <c r="E86">
-        <v>0.85004936499999995</v>
+        <f t="shared" si="1"/>
+        <v>0.85004936499500072</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>